--- a/dados/funcionario.xlsx
+++ b/dados/funcionario.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,22 +449,30 @@
           <t>Cargo</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>time</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>MICAEAL RUBISON CORTES DE GASTOS</t>
+          <t>MICAELA RUBISON CORTES DE GASTOS</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0000003</t>
+          <t>000003</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
           <t>ECONOMISTA</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1.403092300053686</v>
       </c>
     </row>
   </sheetData>
